--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -119,17 +119,23 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>ChangeUser12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -162,6 +168,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -170,60 +206,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,27 +238,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,32 +284,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +304,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -322,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,48 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -590,11 +554,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,153 +599,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,52 +810,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1215,7 +1221,7 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -1354,8 +1360,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A17" s="4"/>
+    <row r="17" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" ht="23.1" customHeight="1" spans="1:1">
       <c r="A18" s="4"/>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>schema.path</t>
   </si>
   <si>
-    <t>${data.path}\Schema\Create User\</t>
+    <t>${data.path}\Schema\GKUser</t>
   </si>
   <si>
     <t>resetPassword</t>
@@ -132,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -642,16 +642,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,15 +1221,15 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7" style="3"/>
+    <col min="1" max="1" width="34.9027777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2986111111111" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7013888888889" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -103,7 +103,7 @@
     <t>schema.path</t>
   </si>
   <si>
-    <t>${data.path}\Schema\Create User\</t>
+    <t>${data.path}\Schema\GKUser</t>
   </si>
   <si>
     <t>resetPassword</t>
@@ -119,15 +119,21 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>ChangeUser12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -162,6 +168,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -170,60 +206,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,27 +238,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,32 +284,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +304,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -322,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,48 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -590,11 +554,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,153 +599,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,52 +810,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1215,15 +1221,15 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7" style="3"/>
+    <col min="1" max="1" width="34.9027777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.2986111111111" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7013888888889" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">
@@ -1354,8 +1360,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A17" s="4"/>
+    <row r="17" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" ht="23.1" customHeight="1" spans="1:1">
       <c r="A18" s="4"/>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>ChangeUser12345</t>
+  </si>
+  <si>
+    <t>invalid.username</t>
+  </si>
+  <si>
+    <t>63654,$%^&amp;**,hdsj,  ,</t>
+  </si>
+  <si>
+    <t>invalid.answer</t>
+  </si>
+  <si>
+    <t>unique.Username</t>
+  </si>
+  <si>
+    <t>1,12,123,123456789qwertsdjksjdhjfsdjkdsfjfjkfjskdsjjjfdsjkfsdjkdsjkfhjfksdhjfksdhfjksd,   ,</t>
+  </si>
+  <si>
+    <t>invalid.password</t>
+  </si>
+  <si>
+    <t>password,123456,myname123,1234567890,aaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -1220,16 +1241,16 @@
   <sheetPr/>
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.9027777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2986111111111" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7013888888889" style="3"/>
+    <col min="1" max="1" width="34.9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">
@@ -1368,20 +1389,45 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A22" s="4"/>
+    <row r="18" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" ht="23.1" customHeight="1" spans="1:1">
       <c r="A23" s="4"/>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>password,123456,myname123,1234567890,aaaaaaaa</t>
+  </si>
+  <si>
+    <t>userpassword</t>
+  </si>
+  <si>
+    <t>yuwy</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1248,7 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -1429,8 +1435,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A23" s="4"/>
+    <row r="23" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" ht="23.1" customHeight="1" spans="1:1">
       <c r="A24" s="4"/>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -103,7 +103,7 @@
     <t>schema.path</t>
   </si>
   <si>
-    <t>${data.path}\Schema\GKUser</t>
+    <t>${data.path}\Schema\Create User\</t>
   </si>
   <si>
     <t>resetPassword</t>
@@ -115,6 +115,9 @@
     <t>userid</t>
   </si>
   <si>
+    <t>2694</t>
+  </si>
+  <si>
     <t>useranswer</t>
   </si>
   <si>
@@ -124,7 +127,67 @@
     <t>ChangePassword</t>
   </si>
   <si>
-    <t>ChangeUser12345</t>
+    <t>ChangePass123</t>
+  </si>
+  <si>
+    <t>Blank_gkMessage</t>
+  </si>
+  <si>
+    <t>[{"msg":"String should have at least 3 characters","loc":["username"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userpassword"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userquestion"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 1 characters","loc":["useranswer"],"input":"","ctx":{"min_length":1},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
+  </si>
+  <si>
+    <t>Uername_gkMessage</t>
+  </si>
+  <si>
+    <t>[{"msg":"String should have at least 3 characters","loc":["userpassword"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userquestion"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 1 characters","loc":["useranswer"],"input":"","ctx":{"min_length":1},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
+  </si>
+  <si>
+    <t>Password_gkMessage</t>
+  </si>
+  <si>
+    <t>[{"msg":"String should have at least 3 characters","loc":["username"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userquestion"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 1 characters","loc":["useranswer"],"input":"","ctx":{"min_length":1},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
+  </si>
+  <si>
+    <t>Question_gkMessage</t>
+  </si>
+  <si>
+    <t>[{"msg":"String should have at least 3 characters","loc":["username"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userpassword"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 1 characters","loc":["useranswer"],"input":"","ctx":{"min_length":1},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
+  </si>
+  <si>
+    <t>Answer_gkMessage</t>
+  </si>
+  <si>
+    <t>[{"msg":"String should have at least 3 characters","loc":["username"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userpassword"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"String should have at least 3 characters","loc":["userquestion"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
+  </si>
+  <si>
+    <t>GKResult_NoHeaders</t>
+  </si>
+  <si>
+    <t>HTTP_GKUSERTOKEN'</t>
+  </si>
+  <si>
+    <t>UserId_gkResult</t>
+  </si>
+  <si>
+    <t>[{"msg":"Field required","loc":["username"],"input":{"useranswer":"admin","userid":"","userpassword":"test4"},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"},{"msg":"Field required","loc":["userquestion"],"input":{"useranswer":"admin","userid":"","userpassword":"test4"},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"}]</t>
+  </si>
+  <si>
+    <t>Answer_gkResult</t>
+  </si>
+  <si>
+    <t>[{"msg":"Field required","loc":["username"],"input":{"useranswer":"","userid":"1","userpassword":"test4"},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"},{"msg":"Field required","loc":["userquestion"],"input":{"useranswer":"","userid":"1","userpassword":"test4"},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"},{"msg":"String should have at least 1 characters","loc":["useranswer"],"input":"","ctx":{"min_length":1},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
+  </si>
+  <si>
+    <t>Password_gkResult</t>
+  </si>
+  <si>
+    <t>[{"msg":"Field required","loc":["username"],"input":{"useranswer":"admin","userid":"1","userpassword":""},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"},{"msg":"String should have at least 3 characters","loc":["userpassword"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"Field required","loc":["userquestion"],"input":{"useranswer":"admin","userid":"1","userpassword":""},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"}]</t>
+  </si>
+  <si>
+    <t>Blank_gkResult</t>
+  </si>
+  <si>
+    <t>[{"msg":"Field required","loc":["username"],"input":{"useranswer":"","userid":"","userpassword":""},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"},{"msg":"String should have at least 3 characters","loc":["userpassword"],"input":"","ctx":{"min_length":3},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"},{"msg":"Field required","loc":["userquestion"],"input":{"useranswer":"","userid":"","userpassword":""},"type":"missing","url":"https://errors.pydantic.dev/2.4/v/missing"},{"msg":"String should have at least 1 characters","loc":["useranswer"],"input":"","ctx":{"min_length":1},"type":"string_too_short","url":"https://errors.pydantic.dev/2.4/v/string_too_short"}]</t>
   </si>
 </sst>
 </file>
@@ -132,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -642,16 +705,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,6 +869,10 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,15 +1288,15 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.9027777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2986111111111" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7013888888889" style="3"/>
+    <col min="1" max="1" width="34.9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">
@@ -1349,54 +1416,104 @@
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="23.1" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="23.1" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A27" s="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" ht="23.1" customHeight="1" spans="1:1">
       <c r="A28" s="4"/>
@@ -1615,48 +1732,92 @@
       <c r="A99" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A13,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="18">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:E25">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A26,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E26">
     <cfRule type="notContainsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
+      <formula>LEN(TRIM(B26))&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12 A14:A1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
+  <conditionalFormatting sqref="A1:A12 A14:A24 A27:A1048576">
+    <cfRule type="beginsWith" dxfId="3" priority="19" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="20" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="21" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="22" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E12 C13:E13 B14:E1048576">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:E12 C13:E13 B14:E24 B27:E1048576">
+    <cfRule type="expression" dxfId="5" priority="23" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="26">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -97,7 +97,7 @@
     <t>answer</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>Mumbai</t>
   </si>
   <si>
     <t>schema.path</t>
@@ -109,7 +109,7 @@
     <t>resetPassword</t>
   </si>
   <si>
-    <t>User12345</t>
+    <t>PasswordReset12345</t>
   </si>
   <si>
     <t>userid</t>
@@ -125,6 +125,54 @@
   </si>
   <si>
     <t>ChangeUser12345</t>
+  </si>
+  <si>
+    <t>list.username</t>
+  </si>
+  <si>
+    <t>[NUMBER(${num})=&gt;randomDigits(3)],$#%^&amp;*!,hgt@[NUMBER(${num})=&gt;randomDigits(3)]sj</t>
+  </si>
+  <si>
+    <t>invalid.username</t>
+  </si>
+  <si>
+    <t>S,@[NUMBER(${num})=&gt;randomDigits(3)],S#[NUMBER(${num})=&gt;randomDigits(4)],S % [NUMBER(${num})=&gt;randomDigits(2)],[NUMBER(${num})=&gt;randomDigits(4)]&amp;1</t>
+  </si>
+  <si>
+    <t>invalid.userid</t>
+  </si>
+  <si>
+    <t>$#,123$,abcd#,tyrh</t>
+  </si>
+  <si>
+    <t>invalid.answer</t>
+  </si>
+  <si>
+    <t>63454,$#%^&amp;**,hgtdsj</t>
+  </si>
+  <si>
+    <t>invalid.password</t>
+  </si>
+  <si>
+    <t>ps123456</t>
+  </si>
+  <si>
+    <t>unique.Username</t>
+  </si>
+  <si>
+    <t>1ach[NUMBER(${num})=&gt;randomDigits(1)],User@[NUMBER(${num})=&gt;randomDigits(3)],1ach[NUMBER(${num})=&gt;randomDigits(1)]@#</t>
+  </si>
+  <si>
+    <t>userpassword</t>
+  </si>
+  <si>
+    <t>yuwy</t>
+  </si>
+  <si>
+    <t>invalid.userpassword</t>
+  </si>
+  <si>
+    <t>t#,,t3</t>
   </si>
 </sst>
 </file>
@@ -132,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -642,16 +690,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,18 +1266,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.9027777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2986111111111" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7013888888889" style="3"/>
+    <col min="1" max="1" width="34.9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.071428571429" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">
@@ -1368,29 +1416,69 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A25" s="4"/>
+    <row r="18" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" ht="23.1" customHeight="1" spans="1:1">
       <c r="A26" s="4"/>
@@ -1614,49 +1702,74 @@
     <row r="99" ht="23.1" customHeight="1" spans="1:1">
       <c r="A99" s="4"/>
     </row>
+    <row r="100" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A100" s="4"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A13,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:E20">
     <cfRule type="notContainsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
+      <formula>LEN(TRIM(B20))&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12 A14:A1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
+  <conditionalFormatting sqref="A1:A12 A14:A19 A21:A1048576">
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E12 C13:E13 B14:E1048576">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:E12 C13:E13 B14:E19 B21:E1048576">
+    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="20">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -97,7 +97,7 @@
     <t>answer</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>Mumbai</t>
   </si>
   <si>
     <t>schema.path</t>
@@ -109,7 +109,7 @@
     <t>resetPassword</t>
   </si>
   <si>
-    <t>User12345</t>
+    <t>PasswordReset12345</t>
   </si>
   <si>
     <t>userid</t>
@@ -125,6 +125,54 @@
   </si>
   <si>
     <t>ChangeUser12345</t>
+  </si>
+  <si>
+    <t>list.username</t>
+  </si>
+  <si>
+    <t>[NUMBER(${num})=&gt;randomDigits(3)],$#%^&amp;*!,hgt@[NUMBER(${num})=&gt;randomDigits(3)]sj</t>
+  </si>
+  <si>
+    <t>invalid.username</t>
+  </si>
+  <si>
+    <t>S,@[NUMBER(${num})=&gt;randomDigits(3)],S#[NUMBER(${num})=&gt;randomDigits(4)],S % [NUMBER(${num})=&gt;randomDigits(2)],[NUMBER(${num})=&gt;randomDigits(4)]&amp;1</t>
+  </si>
+  <si>
+    <t>invalid.userid</t>
+  </si>
+  <si>
+    <t>$#,123$,abcd#,tyrh</t>
+  </si>
+  <si>
+    <t>invalid.answer</t>
+  </si>
+  <si>
+    <t>63454,$#%^&amp;**,hgtdsj</t>
+  </si>
+  <si>
+    <t>invalid.password</t>
+  </si>
+  <si>
+    <t>ps123456</t>
+  </si>
+  <si>
+    <t>unique.Username</t>
+  </si>
+  <si>
+    <t>1ach[NUMBER(${num})=&gt;randomDigits(1)],User@[NUMBER(${num})=&gt;randomDigits(3)],1ach[NUMBER(${num})=&gt;randomDigits(1)]@#</t>
+  </si>
+  <si>
+    <t>userpassword</t>
+  </si>
+  <si>
+    <t>yuwy</t>
+  </si>
+  <si>
+    <t>invalid.userpassword</t>
+  </si>
+  <si>
+    <t>t#,,t3</t>
   </si>
 </sst>
 </file>
@@ -132,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -642,16 +690,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,18 +1266,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7013888888889" defaultRowHeight="16.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.9027777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.2986111111111" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.2986111111111" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.7013888888889" style="3"/>
+    <col min="1" max="1" width="34.9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.071428571429" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.3" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.7" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.1" customHeight="1" spans="1:2">
@@ -1368,29 +1416,69 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" ht="23.1" customHeight="1" spans="1:1">
-      <c r="A25" s="4"/>
+    <row r="18" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" ht="23.1" customHeight="1" spans="1:1">
       <c r="A26" s="4"/>
@@ -1614,49 +1702,74 @@
     <row r="99" ht="23.1" customHeight="1" spans="1:1">
       <c r="A99" s="4"/>
     </row>
+    <row r="100" ht="23.1" customHeight="1" spans="1:1">
+      <c r="A100" s="4"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A13,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:E20">
     <cfRule type="notContainsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
+      <formula>LEN(TRIM(B20))&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12 A14:A1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
+  <conditionalFormatting sqref="A1:A12 A14:A19 A21:A1048576">
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:E12 C13:E13 B14:E1048576">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:E12 C13:E13 B14:E19 B21:E1048576">
+    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="20">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/artifact/data/GKUser.data.xlsx
+++ b/tests/artifact/data/GKUser.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,25 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -79,13 +92,16 @@
     <t>wps</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>NewUsername</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>test@123</t>
   </si>
   <si>
     <t>question</t>
@@ -178,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -210,6 +226,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFF8F9FA"/>
       <name val="Arial"/>
@@ -220,14 +244,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,28 +703,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -852,7 +868,15 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,13 +934,27 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -936,25 +974,25 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b val="1"/>
         <i val="1"/>
         <strike val="0"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="2"/>
+          <bgColor theme="0" tint="-0.0499893185216834"/>
         </patternFill>
       </fill>
     </dxf>
@@ -969,20 +1007,6 @@
       <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
-        </patternFill>
       </fill>
     </dxf>
   </dxfs>
@@ -1268,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="1"/>
@@ -1348,7 +1372,7 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1356,45 +1380,45 @@
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="23.1" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="23.1" customHeight="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="23.1" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="23.1" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="23.1" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1402,82 +1426,82 @@
     </row>
     <row r="16" ht="23.1" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="23.1" customHeight="1" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="23.1" customHeight="1" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="23.1" customHeight="1" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="23.1" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="23.1" customHeight="1" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="23.1" customHeight="1" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="23.1" customHeight="1" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="23.1" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="23.1" customHeight="1" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="23.1" customHeight="1" spans="1:1">
@@ -1708,71 +1732,74 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>LEN(TRIM(A13))&gt;0</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A13,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A13,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A13,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A13,LEN("//"))="//"</formula>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(B13))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A20))&gt;0</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A20,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A20,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A20,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A20,LEN("//"))="//"</formula>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:E20">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(B20))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12 A14:A19 A21:A1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E12 C13:E13 B14:E19 B21:E1048576">
-    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="20">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="test@123"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
